--- a/2咪咕商城/咪咕圈圈v370/咪咕圈圈v370测试用例_old.xlsx
+++ b/2咪咕商城/咪咕圈圈v370/咪咕圈圈v370测试用例_old.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="148">
   <si>
     <t>*功能模块</t>
   </si>
@@ -143,6 +143,9 @@
 2、查看返回报文，数据库数据</t>
   </si>
   <si>
+    <t>1、数据同步成功</t>
+  </si>
+  <si>
     <t>话题数据同步,话题热度为空</t>
   </si>
   <si>
@@ -223,6 +226,9 @@
   <si>
     <t>1、数据同步接口键入学堂数据，学堂枚举值type=19、内容为空，发起请求
 2、查看返回报文，数据库数据</t>
+  </si>
+  <si>
+    <t>2、数据同步失败</t>
   </si>
   <si>
     <t>学堂(文章)数据同步热度为空</t>
@@ -506,9 +512,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -574,72 +580,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -656,7 +603,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,9 +654,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,9 +692,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,21 +718,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,13 +744,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +780,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,31 +810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,49 +822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +840,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,37 +900,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,15 +1027,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1047,11 +1044,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,11 +1075,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,21 +1124,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1126,10 +1132,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1138,137 +1144,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1341,18 +1347,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1360,12 +1354,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1738,9 +1726,9 @@
   <dimension ref="A1:AB68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -1825,9 +1813,9 @@
       <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="10" t="s">
@@ -1852,10 +1840,10 @@
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="60" spans="1:20">
       <c r="A3" s="10"/>
@@ -1921,7 +1909,7 @@
       <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="24" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="14" t="s">
@@ -1935,10 +1923,10 @@
         <v>29</v>
       </c>
       <c r="O5" s="11"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="60" spans="1:19">
       <c r="A6" s="11"/>
@@ -1956,7 +1944,7 @@
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="24" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="14" t="s">
@@ -1968,10 +1956,10 @@
       <c r="M6" s="18"/>
       <c r="N6" s="14"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="60" spans="1:19">
       <c r="A7" s="11"/>
@@ -1989,7 +1977,7 @@
       <c r="I7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="24" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="14" t="s">
@@ -2003,10 +1991,10 @@
         <v>29</v>
       </c>
       <c r="O7" s="11"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A8" s="11"/>
@@ -2024,24 +2012,24 @@
       <c r="I8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="24" t="s">
         <v>38</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>39</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O8" s="11"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A9" s="13"/>
@@ -2050,7 +2038,7 @@
       <c r="D9" s="13"/>
       <c r="E9" s="14"/>
       <c r="F9" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="15" t="s">
@@ -2059,11 +2047,11 @@
       <c r="I9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>41</v>
+      <c r="J9" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>33</v>
@@ -2073,16 +2061,16 @@
         <v>29</v>
       </c>
       <c r="O9" s="11"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2109,7 +2097,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
       <c r="F11" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="15" t="s">
@@ -2118,30 +2106,30 @@
       <c r="I11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="24" t="s">
         <v>26</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M11" s="18"/>
       <c r="N11" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O11" s="11"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -2168,7 +2156,7 @@
       <c r="D13" s="13"/>
       <c r="E13" s="14"/>
       <c r="F13" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="15" t="s">
@@ -2177,30 +2165,30 @@
       <c r="I13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="24" t="s">
         <v>26</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O13" s="11"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -2227,7 +2215,7 @@
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
       <c r="F15" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="15" t="s">
@@ -2236,22 +2224,22 @@
       <c r="I15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="28" t="s">
-        <v>53</v>
+      <c r="J15" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="14"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="60" spans="1:19">
       <c r="A16" s="13"/>
@@ -2260,18 +2248,18 @@
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
       <c r="F16" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
       <c r="I16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="28" t="s">
-        <v>57</v>
+      <c r="J16" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>33</v>
@@ -2279,10 +2267,10 @@
       <c r="M16" s="18"/>
       <c r="N16" s="14"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A17" s="13"/>
@@ -2291,18 +2279,18 @@
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
       <c r="F17" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
       <c r="I17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="28" t="s">
-        <v>60</v>
+      <c r="J17" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>33</v>
@@ -2310,10 +2298,10 @@
       <c r="M17" s="18"/>
       <c r="N17" s="14"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A18" s="13"/>
@@ -2322,29 +2310,31 @@
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
       <c r="F18" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
       <c r="I18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="28" t="s">
-        <v>63</v>
+      <c r="J18" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="M18" s="18"/>
-      <c r="N18" s="14"/>
+      <c r="N18" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="O18" s="11"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A19" s="13"/>
@@ -2353,18 +2343,18 @@
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
       <c r="F19" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
       <c r="I19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="28" t="s">
-        <v>66</v>
+      <c r="J19" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>33</v>
@@ -2372,10 +2362,10 @@
       <c r="M19" s="18"/>
       <c r="N19" s="14"/>
       <c r="O19" s="11"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A20" s="13"/>
@@ -2384,18 +2374,18 @@
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
       <c r="F20" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
       <c r="I20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="28" t="s">
+      <c r="J20" s="24" t="s">
         <v>38</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L20" s="14" t="s">
         <v>33</v>
@@ -2403,16 +2393,16 @@
       <c r="M20" s="18"/>
       <c r="N20" s="14"/>
       <c r="O20" s="11"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -2439,7 +2429,7 @@
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
       <c r="F22" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="15" t="s">
@@ -2448,30 +2438,30 @@
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="28" t="s">
-        <v>53</v>
+      <c r="J22" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M22" s="18"/>
       <c r="N22" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O22" s="11"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -2498,7 +2488,7 @@
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
       <c r="F24" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="15" t="s">
@@ -2507,30 +2497,30 @@
       <c r="I24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="28" t="s">
+      <c r="J24" s="24" t="s">
         <v>26</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M24" s="18"/>
       <c r="N24" s="14" t="s">
         <v>29</v>
       </c>
       <c r="O24" s="11"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -2557,7 +2547,7 @@
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
       <c r="F26" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="19" t="s">
@@ -2566,31 +2556,31 @@
       <c r="I26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="28" t="s">
-        <v>76</v>
+      <c r="J26" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M26" s="18"/>
-      <c r="N26" s="30"/>
+      <c r="N26" s="26"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A27" s="20"/>
@@ -2599,7 +2589,7 @@
       <c r="D27" s="20"/>
       <c r="E27" s="21"/>
       <c r="F27" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="23" t="s">
@@ -2608,29 +2598,29 @@
       <c r="I27" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="31"/>
+      <c r="J27" s="27"/>
       <c r="K27" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L27" s="14" t="s">
         <v>33</v>
       </c>
       <c r="M27" s="22"/>
-      <c r="N27" s="32"/>
+      <c r="N27" s="28"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A28" s="20"/>
@@ -2639,7 +2629,7 @@
       <c r="D28" s="20"/>
       <c r="E28" s="21"/>
       <c r="F28" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="23" t="s">
@@ -2648,29 +2638,29 @@
       <c r="I28" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="31"/>
+      <c r="J28" s="27"/>
       <c r="K28" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M28" s="22"/>
-      <c r="N28" s="32"/>
+      <c r="N28" s="28"/>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A29" s="20"/>
@@ -2679,7 +2669,7 @@
       <c r="D29" s="20"/>
       <c r="E29" s="21"/>
       <c r="F29" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="23" t="s">
@@ -2688,29 +2678,29 @@
       <c r="I29" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="31"/>
+      <c r="J29" s="27"/>
       <c r="K29" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L29" s="14" t="s">
         <v>33</v>
       </c>
       <c r="M29" s="22"/>
-      <c r="N29" s="32"/>
+      <c r="N29" s="28"/>
       <c r="O29" s="20"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="20"/>
       <c r="R29" s="20"/>
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="39"/>
-      <c r="AB29" s="39"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A30" s="20"/>
@@ -2719,7 +2709,7 @@
       <c r="D30" s="20"/>
       <c r="E30" s="21"/>
       <c r="F30" s="18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="23" t="s">
@@ -2728,29 +2718,29 @@
       <c r="I30" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="31"/>
+      <c r="J30" s="27"/>
       <c r="K30" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L30" s="14" t="s">
         <v>33</v>
       </c>
       <c r="M30" s="22"/>
-      <c r="N30" s="32"/>
+      <c r="N30" s="28"/>
       <c r="O30" s="20"/>
       <c r="P30" s="20"/>
       <c r="Q30" s="20"/>
       <c r="R30" s="20"/>
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="33"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A31" s="20"/>
@@ -2759,7 +2749,7 @@
       <c r="D31" s="20"/>
       <c r="E31" s="21"/>
       <c r="F31" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="23" t="s">
@@ -2768,29 +2758,29 @@
       <c r="I31" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J31" s="31"/>
+      <c r="J31" s="27"/>
       <c r="K31" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L31" s="14" t="s">
         <v>33</v>
       </c>
       <c r="M31" s="22"/>
-      <c r="N31" s="32"/>
+      <c r="N31" s="28"/>
       <c r="O31" s="20"/>
       <c r="P31" s="20"/>
       <c r="Q31" s="20"/>
       <c r="R31" s="20"/>
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A32" s="20"/>
@@ -2799,7 +2789,7 @@
       <c r="D32" s="20"/>
       <c r="E32" s="21"/>
       <c r="F32" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="23" t="s">
@@ -2808,29 +2798,29 @@
       <c r="I32" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="31"/>
+      <c r="J32" s="27"/>
       <c r="K32" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L32" s="14" t="s">
         <v>33</v>
       </c>
       <c r="M32" s="22"/>
-      <c r="N32" s="32"/>
+      <c r="N32" s="28"/>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
       <c r="R32" s="20"/>
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A33" s="20"/>
@@ -2839,7 +2829,7 @@
       <c r="D33" s="20"/>
       <c r="E33" s="21"/>
       <c r="F33" s="18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="23" t="s">
@@ -2848,35 +2838,35 @@
       <c r="I33" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="31"/>
+      <c r="J33" s="27"/>
       <c r="K33" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L33" s="14" t="s">
         <v>33</v>
       </c>
       <c r="M33" s="22"/>
-      <c r="N33" s="32"/>
+      <c r="N33" s="28"/>
       <c r="O33" s="20"/>
       <c r="P33" s="20"/>
       <c r="Q33" s="20"/>
       <c r="R33" s="20"/>
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="39"/>
-      <c r="AB33" s="39"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="33"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -2903,7 +2893,7 @@
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
       <c r="F35" s="18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="19" t="s">
@@ -2912,37 +2902,37 @@
       <c r="I35" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="28" t="s">
-        <v>76</v>
+      <c r="J35" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M35" s="18"/>
-      <c r="N35" s="30"/>
+      <c r="N35" s="26"/>
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
       <c r="T35" s="16"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="38"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="32"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -2969,7 +2959,7 @@
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
       <c r="F37" s="18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="19" t="s">
@@ -2978,37 +2968,37 @@
       <c r="I37" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J37" s="28" t="s">
-        <v>76</v>
+      <c r="J37" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M37" s="18"/>
-      <c r="N37" s="30"/>
+      <c r="N37" s="26"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38"/>
-      <c r="AB37" s="38"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -3029,129 +3019,129 @@
       <c r="T38" s="10"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="45" spans="1:28">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="G39" s="26"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="22"/>
       <c r="H39" s="19" t="s">
         <v>24</v>
       </c>
       <c r="I39" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J39" s="33"/>
+      <c r="J39" s="27"/>
       <c r="K39" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="M39" s="26"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="39"/>
-      <c r="AB39" s="39"/>
+        <v>106</v>
+      </c>
+      <c r="M39" s="22"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="45" spans="1:28">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="26"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="22"/>
       <c r="H40" s="19" t="s">
         <v>24</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J40" s="33"/>
+      <c r="J40" s="27"/>
       <c r="K40" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="M40" s="26"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="39"/>
-      <c r="AA40" s="39"/>
-      <c r="AB40" s="39"/>
+        <v>109</v>
+      </c>
+      <c r="M40" s="22"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="33"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="45" spans="1:28">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41" s="26"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" s="22"/>
       <c r="H41" s="19" t="s">
         <v>24</v>
       </c>
       <c r="I41" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J41" s="33"/>
+      <c r="J41" s="27"/>
       <c r="K41" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="M41" s="26"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39"/>
-      <c r="Z41" s="39"/>
-      <c r="AA41" s="39"/>
-      <c r="AB41" s="39"/>
+        <v>112</v>
+      </c>
+      <c r="M41" s="22"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="33"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="84" spans="1:20">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -3176,7 +3166,7 @@
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -3203,7 +3193,7 @@
       <c r="D44" s="16"/>
       <c r="E44" s="17"/>
       <c r="F44" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="19" t="s">
@@ -3214,27 +3204,27 @@
       </c>
       <c r="J44" s="18"/>
       <c r="K44" s="18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M44" s="18"/>
-      <c r="N44" s="30"/>
+      <c r="N44" s="26"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
       <c r="R44" s="16"/>
       <c r="S44" s="16"/>
       <c r="T44" s="16"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="38"/>
-      <c r="AA44" s="38"/>
-      <c r="AB44" s="38"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="32"/>
+      <c r="AB44" s="32"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A45" s="16"/>
@@ -3243,7 +3233,7 @@
       <c r="D45" s="16"/>
       <c r="E45" s="17"/>
       <c r="F45" s="18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="19" t="s">
@@ -3254,27 +3244,27 @@
       </c>
       <c r="J45" s="18"/>
       <c r="K45" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="L45" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="L45" s="18" t="s">
-        <v>115</v>
-      </c>
       <c r="M45" s="18"/>
-      <c r="N45" s="30"/>
+      <c r="N45" s="26"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
       <c r="R45" s="16"/>
       <c r="S45" s="16"/>
       <c r="T45" s="16"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="38"/>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="38"/>
-      <c r="Z45" s="38"/>
-      <c r="AA45" s="38"/>
-      <c r="AB45" s="38"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="32"/>
+      <c r="AB45" s="32"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A46" s="16"/>
@@ -3283,7 +3273,7 @@
       <c r="D46" s="16"/>
       <c r="E46" s="17"/>
       <c r="F46" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="19" t="s">
@@ -3294,27 +3284,27 @@
       </c>
       <c r="J46" s="18"/>
       <c r="K46" s="18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M46" s="18"/>
-      <c r="N46" s="30"/>
+      <c r="N46" s="26"/>
       <c r="O46" s="16"/>
       <c r="P46" s="16"/>
       <c r="Q46" s="16"/>
       <c r="R46" s="16"/>
       <c r="S46" s="16"/>
       <c r="T46" s="16"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="38"/>
-      <c r="X46" s="38"/>
-      <c r="Y46" s="38"/>
-      <c r="Z46" s="38"/>
-      <c r="AA46" s="38"/>
-      <c r="AB46" s="38"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="32"/>
+      <c r="Z46" s="32"/>
+      <c r="AA46" s="32"/>
+      <c r="AB46" s="32"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A47" s="16"/>
@@ -3323,7 +3313,7 @@
       <c r="D47" s="16"/>
       <c r="E47" s="17"/>
       <c r="F47" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="19" t="s">
@@ -3334,27 +3324,27 @@
       </c>
       <c r="J47" s="18"/>
       <c r="K47" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M47" s="18"/>
-      <c r="N47" s="30"/>
+      <c r="N47" s="26"/>
       <c r="O47" s="16"/>
       <c r="P47" s="16"/>
       <c r="Q47" s="16"/>
       <c r="R47" s="16"/>
       <c r="S47" s="16"/>
       <c r="T47" s="16"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
-      <c r="X47" s="38"/>
-      <c r="Y47" s="38"/>
-      <c r="Z47" s="38"/>
-      <c r="AA47" s="38"/>
-      <c r="AB47" s="38"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A48" s="16"/>
@@ -3363,7 +3353,7 @@
       <c r="D48" s="16"/>
       <c r="E48" s="17"/>
       <c r="F48" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="19" t="s">
@@ -3374,159 +3364,159 @@
       </c>
       <c r="J48" s="18"/>
       <c r="K48" s="18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M48" s="18"/>
-      <c r="N48" s="30"/>
+      <c r="N48" s="26"/>
       <c r="O48" s="16"/>
       <c r="P48" s="16"/>
       <c r="Q48" s="16"/>
       <c r="R48" s="16"/>
       <c r="S48" s="16"/>
       <c r="T48" s="16"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
-      <c r="AA48" s="38"/>
-      <c r="AB48" s="38"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="32"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="45" spans="1:28">
-      <c r="A49" s="24"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="G49" s="26"/>
-      <c r="H49" s="27" t="s">
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" s="22"/>
+      <c r="H49" s="23" t="s">
         <v>24</v>
       </c>
       <c r="I49" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J49" s="26" t="s">
-        <v>125</v>
+      <c r="J49" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="M49" s="26"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39"/>
-      <c r="Z49" s="39"/>
-      <c r="AA49" s="39"/>
-      <c r="AB49" s="39"/>
+        <v>128</v>
+      </c>
+      <c r="M49" s="22"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="33"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="33"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="45" spans="1:28">
-      <c r="A50" s="24"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="G50" s="26"/>
-      <c r="H50" s="27" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50" s="22"/>
+      <c r="H50" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I50" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J50" s="26" t="s">
-        <v>128</v>
+      <c r="J50" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="M50" s="26"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="39"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="39"/>
-      <c r="AA50" s="39"/>
-      <c r="AB50" s="39"/>
+        <v>131</v>
+      </c>
+      <c r="M50" s="22"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="33"/>
+      <c r="V50" s="33"/>
+      <c r="W50" s="33"/>
+      <c r="X50" s="33"/>
+      <c r="Y50" s="33"/>
+      <c r="Z50" s="33"/>
+      <c r="AA50" s="33"/>
+      <c r="AB50" s="33"/>
     </row>
     <row r="51" s="2" customFormat="1" ht="45" spans="1:28">
-      <c r="A51" s="24"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G51" s="26"/>
-      <c r="H51" s="27" t="s">
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G51" s="22"/>
+      <c r="H51" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I51" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J51" s="26" t="s">
+      <c r="J51" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="K51" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="L51" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="K51" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="L51" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="M51" s="26"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="39"/>
-      <c r="V51" s="39"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39"/>
-      <c r="Z51" s="39"/>
-      <c r="AA51" s="39"/>
-      <c r="AB51" s="39"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="33"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="33"/>
+      <c r="AA51" s="33"/>
+      <c r="AB51" s="33"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
@@ -3553,7 +3543,7 @@
       <c r="D53" s="16"/>
       <c r="E53" s="17"/>
       <c r="F53" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="19" t="s">
@@ -3564,27 +3554,27 @@
       </c>
       <c r="J53" s="18"/>
       <c r="K53" s="18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L53" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M53" s="18"/>
-      <c r="N53" s="30"/>
+      <c r="N53" s="26"/>
       <c r="O53" s="16"/>
       <c r="P53" s="16"/>
       <c r="Q53" s="16"/>
       <c r="R53" s="16"/>
       <c r="S53" s="16"/>
       <c r="T53" s="16"/>
-      <c r="U53" s="38"/>
-      <c r="V53" s="38"/>
-      <c r="W53" s="38"/>
-      <c r="X53" s="38"/>
-      <c r="Y53" s="38"/>
-      <c r="Z53" s="38"/>
-      <c r="AA53" s="38"/>
-      <c r="AB53" s="38"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="32"/>
+      <c r="Y53" s="32"/>
+      <c r="Z53" s="32"/>
+      <c r="AA53" s="32"/>
+      <c r="AB53" s="32"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A54" s="16"/>
@@ -3593,7 +3583,7 @@
       <c r="D54" s="16"/>
       <c r="E54" s="17"/>
       <c r="F54" s="18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="19" t="s">
@@ -3604,27 +3594,27 @@
       </c>
       <c r="J54" s="18"/>
       <c r="K54" s="18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L54" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M54" s="18"/>
-      <c r="N54" s="30"/>
+      <c r="N54" s="26"/>
       <c r="O54" s="16"/>
       <c r="P54" s="16"/>
       <c r="Q54" s="16"/>
       <c r="R54" s="16"/>
       <c r="S54" s="16"/>
       <c r="T54" s="16"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="38"/>
-      <c r="W54" s="38"/>
-      <c r="X54" s="38"/>
-      <c r="Y54" s="38"/>
-      <c r="Z54" s="38"/>
-      <c r="AA54" s="38"/>
-      <c r="AB54" s="38"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="32"/>
+      <c r="Y54" s="32"/>
+      <c r="Z54" s="32"/>
+      <c r="AA54" s="32"/>
+      <c r="AB54" s="32"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A55" s="16"/>
@@ -3633,7 +3623,7 @@
       <c r="D55" s="16"/>
       <c r="E55" s="17"/>
       <c r="F55" s="18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="19" t="s">
@@ -3644,27 +3634,27 @@
       </c>
       <c r="J55" s="18"/>
       <c r="K55" s="18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L55" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M55" s="18"/>
-      <c r="N55" s="30"/>
+      <c r="N55" s="26"/>
       <c r="O55" s="16"/>
       <c r="P55" s="16"/>
       <c r="Q55" s="16"/>
       <c r="R55" s="16"/>
       <c r="S55" s="16"/>
       <c r="T55" s="16"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="38"/>
-      <c r="W55" s="38"/>
-      <c r="X55" s="38"/>
-      <c r="Y55" s="38"/>
-      <c r="Z55" s="38"/>
-      <c r="AA55" s="38"/>
-      <c r="AB55" s="38"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="32"/>
+      <c r="Z55" s="32"/>
+      <c r="AA55" s="32"/>
+      <c r="AB55" s="32"/>
     </row>
     <row r="56" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A56" s="16"/>
@@ -3673,7 +3663,7 @@
       <c r="D56" s="16"/>
       <c r="E56" s="17"/>
       <c r="F56" s="18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="19" t="s">
@@ -3684,27 +3674,27 @@
       </c>
       <c r="J56" s="18"/>
       <c r="K56" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L56" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M56" s="18"/>
-      <c r="N56" s="30"/>
+      <c r="N56" s="26"/>
       <c r="O56" s="16"/>
       <c r="P56" s="16"/>
       <c r="Q56" s="16"/>
       <c r="R56" s="16"/>
       <c r="S56" s="16"/>
       <c r="T56" s="16"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
-      <c r="W56" s="38"/>
-      <c r="X56" s="38"/>
-      <c r="Y56" s="38"/>
-      <c r="Z56" s="38"/>
-      <c r="AA56" s="38"/>
-      <c r="AB56" s="38"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="32"/>
+      <c r="Y56" s="32"/>
+      <c r="Z56" s="32"/>
+      <c r="AA56" s="32"/>
+      <c r="AB56" s="32"/>
     </row>
     <row r="57" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A57" s="16"/>
@@ -3713,7 +3703,7 @@
       <c r="D57" s="16"/>
       <c r="E57" s="17"/>
       <c r="F57" s="18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="19" t="s">
@@ -3724,193 +3714,193 @@
       </c>
       <c r="J57" s="18"/>
       <c r="K57" s="18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L57" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M57" s="18"/>
-      <c r="N57" s="30"/>
+      <c r="N57" s="26"/>
       <c r="O57" s="16"/>
       <c r="P57" s="16"/>
       <c r="Q57" s="16"/>
       <c r="R57" s="16"/>
       <c r="S57" s="16"/>
       <c r="T57" s="16"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="38"/>
-      <c r="W57" s="38"/>
-      <c r="X57" s="38"/>
-      <c r="Y57" s="38"/>
-      <c r="Z57" s="38"/>
-      <c r="AA57" s="38"/>
-      <c r="AB57" s="38"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="32"/>
+      <c r="Y57" s="32"/>
+      <c r="Z57" s="32"/>
+      <c r="AA57" s="32"/>
+      <c r="AB57" s="32"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="45" spans="1:28">
-      <c r="A58" s="24"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="G58" s="26"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G58" s="22"/>
       <c r="H58" s="19" t="s">
         <v>31</v>
       </c>
       <c r="I58" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J58" s="26"/>
+      <c r="J58" s="22"/>
       <c r="K58" s="18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L58" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="M58" s="26"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="24"/>
-      <c r="T58" s="24"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="39"/>
-      <c r="Z58" s="39"/>
-      <c r="AA58" s="39"/>
-      <c r="AB58" s="39"/>
+        <v>146</v>
+      </c>
+      <c r="M58" s="22"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="33"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="33"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="45" spans="1:28">
-      <c r="A59" s="24"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="G59" s="26"/>
-      <c r="H59" s="27" t="s">
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G59" s="22"/>
+      <c r="H59" s="23" t="s">
         <v>24</v>
       </c>
       <c r="I59" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J59" s="26" t="s">
-        <v>125</v>
+      <c r="J59" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="K59" s="18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L59" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="M59" s="26"/>
-      <c r="N59" s="34"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="24"/>
-      <c r="T59" s="24"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
-      <c r="Z59" s="39"/>
-      <c r="AA59" s="39"/>
-      <c r="AB59" s="39"/>
+        <v>128</v>
+      </c>
+      <c r="M59" s="22"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="33"/>
+      <c r="X59" s="33"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33"/>
+      <c r="AA59" s="33"/>
+      <c r="AB59" s="33"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="45" spans="1:28">
-      <c r="A60" s="24"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="G60" s="26"/>
-      <c r="H60" s="27" t="s">
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60" s="22"/>
+      <c r="H60" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I60" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J60" s="26" t="s">
-        <v>128</v>
+      <c r="J60" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="K60" s="18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L60" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="M60" s="26"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="24"/>
-      <c r="T60" s="24"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="39"/>
-      <c r="AA60" s="39"/>
-      <c r="AB60" s="39"/>
+        <v>131</v>
+      </c>
+      <c r="M60" s="22"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="33"/>
+      <c r="V60" s="33"/>
+      <c r="W60" s="33"/>
+      <c r="X60" s="33"/>
+      <c r="Y60" s="33"/>
+      <c r="Z60" s="33"/>
+      <c r="AA60" s="33"/>
+      <c r="AB60" s="33"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="45" spans="1:28">
-      <c r="A61" s="24"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G61" s="26"/>
-      <c r="H61" s="27" t="s">
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61" s="22"/>
+      <c r="H61" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I61" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J61" s="26" t="s">
+      <c r="J61" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="K61" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L61" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="K61" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="L61" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="M61" s="26"/>
-      <c r="N61" s="34"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="24"/>
-      <c r="S61" s="24"/>
-      <c r="T61" s="24"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="39"/>
-      <c r="Y61" s="39"/>
-      <c r="Z61" s="39"/>
-      <c r="AA61" s="39"/>
-      <c r="AB61" s="39"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="33"/>
+      <c r="V61" s="33"/>
+      <c r="W61" s="33"/>
+      <c r="X61" s="33"/>
+      <c r="Y61" s="33"/>
+      <c r="Z61" s="33"/>
+      <c r="AA61" s="33"/>
+      <c r="AB61" s="33"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="15.6" spans="1:28">
       <c r="A62" s="16"/>
@@ -3926,21 +3916,21 @@
       <c r="K62" s="18"/>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
-      <c r="N62" s="30"/>
+      <c r="N62" s="26"/>
       <c r="O62" s="16"/>
       <c r="P62" s="16"/>
       <c r="Q62" s="16"/>
       <c r="R62" s="16"/>
       <c r="S62" s="16"/>
       <c r="T62" s="16"/>
-      <c r="U62" s="38"/>
-      <c r="V62" s="38"/>
-      <c r="W62" s="38"/>
-      <c r="X62" s="38"/>
-      <c r="Y62" s="38"/>
-      <c r="Z62" s="38"/>
-      <c r="AA62" s="38"/>
-      <c r="AB62" s="38"/>
+      <c r="U62" s="32"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="32"/>
+      <c r="Y62" s="32"/>
+      <c r="Z62" s="32"/>
+      <c r="AA62" s="32"/>
+      <c r="AB62" s="32"/>
     </row>
     <row r="63" s="2" customFormat="1" ht="15.6" spans="1:28">
       <c r="A63" s="16"/>
@@ -3956,21 +3946,21 @@
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
-      <c r="N63" s="30"/>
+      <c r="N63" s="26"/>
       <c r="O63" s="16"/>
       <c r="P63" s="16"/>
       <c r="Q63" s="16"/>
       <c r="R63" s="16"/>
       <c r="S63" s="16"/>
       <c r="T63" s="16"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="38"/>
-      <c r="W63" s="38"/>
-      <c r="X63" s="38"/>
-      <c r="Y63" s="38"/>
-      <c r="Z63" s="38"/>
-      <c r="AA63" s="38"/>
-      <c r="AB63" s="38"/>
+      <c r="U63" s="32"/>
+      <c r="V63" s="32"/>
+      <c r="W63" s="32"/>
+      <c r="X63" s="32"/>
+      <c r="Y63" s="32"/>
+      <c r="Z63" s="32"/>
+      <c r="AA63" s="32"/>
+      <c r="AB63" s="32"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="15.6" spans="1:28">
       <c r="A64" s="16"/>
@@ -3986,21 +3976,21 @@
       <c r="K64" s="18"/>
       <c r="L64" s="18"/>
       <c r="M64" s="18"/>
-      <c r="N64" s="30"/>
+      <c r="N64" s="26"/>
       <c r="O64" s="16"/>
       <c r="P64" s="16"/>
       <c r="Q64" s="16"/>
       <c r="R64" s="16"/>
       <c r="S64" s="16"/>
       <c r="T64" s="16"/>
-      <c r="U64" s="38"/>
-      <c r="V64" s="38"/>
-      <c r="W64" s="38"/>
-      <c r="X64" s="38"/>
-      <c r="Y64" s="38"/>
-      <c r="Z64" s="38"/>
-      <c r="AA64" s="38"/>
-      <c r="AB64" s="38"/>
+      <c r="U64" s="32"/>
+      <c r="V64" s="32"/>
+      <c r="W64" s="32"/>
+      <c r="X64" s="32"/>
+      <c r="Y64" s="32"/>
+      <c r="Z64" s="32"/>
+      <c r="AA64" s="32"/>
+      <c r="AB64" s="32"/>
     </row>
     <row r="65" s="2" customFormat="1" ht="15.6" spans="1:28">
       <c r="A65" s="16"/>
@@ -4016,21 +4006,21 @@
       <c r="K65" s="18"/>
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
-      <c r="N65" s="30"/>
+      <c r="N65" s="26"/>
       <c r="O65" s="16"/>
       <c r="P65" s="16"/>
       <c r="Q65" s="16"/>
       <c r="R65" s="16"/>
       <c r="S65" s="16"/>
       <c r="T65" s="16"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="38"/>
-      <c r="W65" s="38"/>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="38"/>
-      <c r="AA65" s="38"/>
-      <c r="AB65" s="38"/>
+      <c r="U65" s="32"/>
+      <c r="V65" s="32"/>
+      <c r="W65" s="32"/>
+      <c r="X65" s="32"/>
+      <c r="Y65" s="32"/>
+      <c r="Z65" s="32"/>
+      <c r="AA65" s="32"/>
+      <c r="AB65" s="32"/>
     </row>
     <row r="66" s="2" customFormat="1" ht="15.6" spans="1:28">
       <c r="A66" s="16"/>
@@ -4046,21 +4036,21 @@
       <c r="K66" s="18"/>
       <c r="L66" s="18"/>
       <c r="M66" s="18"/>
-      <c r="N66" s="30"/>
+      <c r="N66" s="26"/>
       <c r="O66" s="16"/>
       <c r="P66" s="16"/>
       <c r="Q66" s="16"/>
       <c r="R66" s="16"/>
       <c r="S66" s="16"/>
       <c r="T66" s="16"/>
-      <c r="U66" s="38"/>
-      <c r="V66" s="38"/>
-      <c r="W66" s="38"/>
-      <c r="X66" s="38"/>
-      <c r="Y66" s="38"/>
-      <c r="Z66" s="38"/>
-      <c r="AA66" s="38"/>
-      <c r="AB66" s="38"/>
+      <c r="U66" s="32"/>
+      <c r="V66" s="32"/>
+      <c r="W66" s="32"/>
+      <c r="X66" s="32"/>
+      <c r="Y66" s="32"/>
+      <c r="Z66" s="32"/>
+      <c r="AA66" s="32"/>
+      <c r="AB66" s="32"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="15.6" spans="1:28">
       <c r="A67" s="16"/>
@@ -4076,21 +4066,21 @@
       <c r="K67" s="18"/>
       <c r="L67" s="18"/>
       <c r="M67" s="18"/>
-      <c r="N67" s="30"/>
+      <c r="N67" s="26"/>
       <c r="O67" s="16"/>
       <c r="P67" s="16"/>
       <c r="Q67" s="16"/>
       <c r="R67" s="16"/>
       <c r="S67" s="16"/>
       <c r="T67" s="16"/>
-      <c r="U67" s="38"/>
-      <c r="V67" s="38"/>
-      <c r="W67" s="38"/>
-      <c r="X67" s="38"/>
-      <c r="Y67" s="38"/>
-      <c r="Z67" s="38"/>
-      <c r="AA67" s="38"/>
-      <c r="AB67" s="38"/>
+      <c r="U67" s="32"/>
+      <c r="V67" s="32"/>
+      <c r="W67" s="32"/>
+      <c r="X67" s="32"/>
+      <c r="Y67" s="32"/>
+      <c r="Z67" s="32"/>
+      <c r="AA67" s="32"/>
+      <c r="AB67" s="32"/>
     </row>
     <row r="68" s="2" customFormat="1" ht="15.6" spans="1:28">
       <c r="A68" s="16"/>
@@ -4106,21 +4096,21 @@
       <c r="K68" s="18"/>
       <c r="L68" s="18"/>
       <c r="M68" s="18"/>
-      <c r="N68" s="30"/>
+      <c r="N68" s="26"/>
       <c r="O68" s="16"/>
       <c r="P68" s="16"/>
       <c r="Q68" s="16"/>
       <c r="R68" s="16"/>
       <c r="S68" s="16"/>
       <c r="T68" s="16"/>
-      <c r="U68" s="38"/>
-      <c r="V68" s="38"/>
-      <c r="W68" s="38"/>
-      <c r="X68" s="38"/>
-      <c r="Y68" s="38"/>
-      <c r="Z68" s="38"/>
-      <c r="AA68" s="38"/>
-      <c r="AB68" s="38"/>
+      <c r="U68" s="32"/>
+      <c r="V68" s="32"/>
+      <c r="W68" s="32"/>
+      <c r="X68" s="32"/>
+      <c r="Y68" s="32"/>
+      <c r="Z68" s="32"/>
+      <c r="AA68" s="32"/>
+      <c r="AB68" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB61">
